--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_7/bcw_train_90_test_10_depth_7_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_7/bcw_train_90_test_10_depth_7_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.851063829787234</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.967741935483871</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8684863523573201</v>
+        <v>0.9479729729729729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.9384920634920635</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8732931089234678</v>
+        <v>0.942866688940862</v>
       </c>
       <c r="E5" t="n">
         <v>57</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.894606242653781</v>
+        <v>0.9474395448079658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8791429192224768</v>
+        <v>0.947087062795646</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_7/bcw_train_90_test_10_depth_7_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_7/bcw_train_90_test_10_depth_7_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.958904109589041</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -484,10 +484,10 @@
         <v>0.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.926829268292683</v>
+        <v>0.93</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9473684210526315</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9473684210526315</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9479729729729729</v>
+        <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9384920634920635</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.942866688940862</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>57</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9474395448079658</v>
+        <v>0.95</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="D6" t="n">
-        <v>0.947087062795646</v>
+        <v>0.95</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
